--- a/data/trans_orig/P1421-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2844F295-F7E8-4A97-87D4-FE93A88CAADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5934FBCC-CA51-4EAF-8B04-A19E861F3EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04EDA2FA-323A-46EA-AF43-0C9DA6AF91EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CECAE31-6E72-4547-BEC6-46D24BFEAB96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="445">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,48%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -107,1300 +107,1273 @@
     <t>0,9%</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>89,54%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AA9FAE-3AEE-4727-9D6E-E6A41B4C7807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404CF59D-C9A9-4775-AC5E-DADE813D2AD2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3050,10 +3023,10 @@
         <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3041,13 @@
         <v>3198072</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H26" s="7">
         <v>3108</v>
@@ -3083,28 +3056,28 @@
         <v>3184298</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>6244</v>
       </c>
       <c r="N26" s="7">
-        <v>6382368</v>
+        <v>6382369</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3119,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -3160,7 +3133,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8791C97-DBB1-4B95-AED7-B15BCEAB32F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0BEC6-406F-4FA3-BE05-9396518922FC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3326,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3341,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3329,13 @@
         <v>1815</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3371,13 +3344,13 @@
         <v>10930</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3386,13 +3359,13 @@
         <v>12745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,10 +3380,10 @@
         <v>113950</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3422,13 +3395,13 @@
         <v>100975</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -3437,13 +3410,13 @@
         <v>214925</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3532,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3562,13 +3535,13 @@
         <v>5170</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -3577,13 +3550,13 @@
         <v>38798</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -3592,13 +3565,13 @@
         <v>43967</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3586,13 @@
         <v>582534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>514</v>
@@ -3628,13 +3601,13 @@
         <v>546347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -3643,13 +3616,13 @@
         <v>1128882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3738,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3768,13 +3741,13 @@
         <v>10584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -3783,13 +3756,13 @@
         <v>48178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3798,13 +3771,13 @@
         <v>58762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3792,13 @@
         <v>1007363</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>893</v>
@@ -3834,13 +3807,13 @@
         <v>980795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1819</v>
@@ -3849,13 +3822,13 @@
         <v>1988158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3917,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3974,13 +3947,13 @@
         <v>8000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -3989,13 +3962,13 @@
         <v>40290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -4004,13 +3977,13 @@
         <v>48289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +3998,13 @@
         <v>749623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7">
         <v>670</v>
@@ -4040,13 +4013,13 @@
         <v>736884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="M18" s="7">
         <v>1352</v>
@@ -4055,13 +4028,13 @@
         <v>1486508</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,10 +4156,10 @@
         <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -4195,13 +4168,13 @@
         <v>51560</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -4210,13 +4183,13 @@
         <v>67279</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,10 +4207,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>952</v>
@@ -4246,13 +4219,13 @@
         <v>1000341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>1845</v>
@@ -4261,13 +4234,13 @@
         <v>1931331</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4359,13 @@
         <v>41286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -4401,13 +4374,13 @@
         <v>189757</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>217</v>
@@ -4416,13 +4389,13 @@
         <v>231043</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4410,13 @@
         <v>3384462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>3119</v>
@@ -4452,28 +4425,28 @@
         <v>3365341</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>6287</v>
       </c>
       <c r="N26" s="7">
-        <v>6749803</v>
+        <v>6749804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,7 +4488,7 @@
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980846</v>
+        <v>6980847</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -4529,7 +4502,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ED3FE2-DA34-48A9-AC3D-2A7E0373CB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55CABC-BCC7-43AA-8D35-A1B64E773638}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4567,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4680,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4695,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4710,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4698,13 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4740,13 +4713,13 @@
         <v>5859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4755,13 +4728,13 @@
         <v>8067</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,10 +4749,10 @@
         <v>114339</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -4791,13 +4764,13 @@
         <v>107501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -4806,13 +4779,13 @@
         <v>221839</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,7 +4859,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4901,7 +4874,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4916,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4904,13 @@
         <v>9537</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4946,13 +4919,13 @@
         <v>25898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -4961,13 +4934,13 @@
         <v>35435</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4955,13 @@
         <v>548717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -4997,13 +4970,13 @@
         <v>533581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>1056</v>
@@ -5012,13 +4985,13 @@
         <v>1082298</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,7 +5065,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5107,7 +5080,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5137,13 +5110,13 @@
         <v>10012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -5152,13 +5125,13 @@
         <v>61466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5167,13 +5140,13 @@
         <v>71477</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5161,13 @@
         <v>1012419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>921</v>
@@ -5203,13 +5176,13 @@
         <v>981447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1862</v>
@@ -5218,13 +5191,13 @@
         <v>1993867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5328,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5316,13 @@
         <v>10960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5358,13 +5331,13 @@
         <v>38033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -5373,13 +5346,13 @@
         <v>48993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5367,13 @@
         <v>748592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>27</v>
       </c>
       <c r="H18" s="7">
         <v>700</v>
@@ -5409,13 +5382,13 @@
         <v>746978</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>1386</v>
@@ -5424,13 +5397,13 @@
         <v>1495570</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5549,13 +5522,13 @@
         <v>15160</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -5564,13 +5537,13 @@
         <v>63443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -5579,13 +5552,13 @@
         <v>78603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5573,13 @@
         <v>922407</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>904</v>
@@ -5615,13 +5588,13 @@
         <v>980336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>1821</v>
@@ -5630,13 +5603,13 @@
         <v>1902743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5728,13 @@
         <v>47875</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>178</v>
@@ -5770,13 +5743,13 @@
         <v>194699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>224</v>
@@ -5785,13 +5758,13 @@
         <v>242574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5779,13 @@
         <v>3346475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>3160</v>
@@ -5821,10 +5794,10 @@
         <v>3349843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>213</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>116</v>
@@ -5836,13 +5809,13 @@
         <v>6696318</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,7 +5871,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5919,7 +5892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F1E06-1867-4FA1-9433-590F9263FFAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272A8205-FE30-4F5D-9DEB-A10E6C8503BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5936,7 +5909,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6049,7 +6022,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6064,7 +6037,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6079,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6067,13 @@
         <v>3107</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -6109,13 +6082,13 @@
         <v>6820</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -6124,13 +6097,13 @@
         <v>9928</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6118,13 @@
         <v>98875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>229</v>
@@ -6160,13 +6133,13 @@
         <v>123913</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>343</v>
@@ -6175,13 +6148,13 @@
         <v>222787</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6264,13 +6237,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6279,13 +6252,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6273,13 @@
         <v>27617</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7">
         <v>106</v>
@@ -6315,13 +6288,13 @@
         <v>59791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -6330,13 +6303,13 @@
         <v>87408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6324,13 @@
         <v>522206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>889</v>
@@ -6366,13 +6339,13 @@
         <v>532764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>1470</v>
@@ -6381,13 +6354,13 @@
         <v>1054970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,7 +6434,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6470,13 +6443,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6491,7 +6464,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6479,13 @@
         <v>38674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>156</v>
@@ -6521,13 +6494,13 @@
         <v>98467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -6536,13 +6509,13 @@
         <v>137140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6530,13 @@
         <v>1000574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>1358</v>
@@ -6572,13 +6545,13 @@
         <v>959546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>2283</v>
@@ -6587,13 +6560,13 @@
         <v>1960120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6712,13 +6685,13 @@
         <v>34370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -6727,13 +6700,13 @@
         <v>105168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -6742,13 +6715,13 @@
         <v>139538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6736,13 @@
         <v>692554</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>410</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>899</v>
@@ -6778,13 +6751,13 @@
         <v>767463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>1541</v>
@@ -6793,13 +6766,13 @@
         <v>1460016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6855,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6897,13 +6870,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6891,13 @@
         <v>51907</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>406</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H21" s="7">
         <v>194</v>
@@ -6933,13 +6906,13 @@
         <v>148140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="M21" s="7">
         <v>244</v>
@@ -6948,13 +6921,13 @@
         <v>200047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6942,13 @@
         <v>912233</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>1365</v>
@@ -6984,13 +6957,13 @@
         <v>998141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>2319</v>
@@ -6999,13 +6972,13 @@
         <v>1910374</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,10 +7064,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>198</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7103,13 +7076,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>13</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7097,13 @@
         <v>155675</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>615</v>
@@ -7139,13 +7112,13 @@
         <v>418386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>771</v>
@@ -7154,13 +7127,13 @@
         <v>574061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7148,13 @@
         <v>3226442</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>4740</v>
@@ -7190,13 +7163,13 @@
         <v>3381826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>7956</v>
@@ -7205,13 +7178,13 @@
         <v>6608269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,7 +7240,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1421-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5934FBCC-CA51-4EAF-8B04-A19E861F3EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E148BB2B-A4F7-4AF3-B57F-9935D97EB488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CECAE31-6E72-4547-BEC6-46D24BFEAB96}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{415228D6-F4E5-4F8A-94D9-A32F4372E04A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="437">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,1077 +95,1056 @@
     <t>1,03%</t>
   </si>
   <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
     <t>6,53%</t>
   </si>
   <si>
@@ -1194,9 +1173,6 @@
   </si>
   <si>
     <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
   </si>
   <si>
     <t>4,73%</t>
@@ -1785,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404CF59D-C9A9-4775-AC5E-DADE813D2AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC90E34-68BF-444E-BE85-FC55A88BCF78}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2169,10 +2145,10 @@
         <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2181,13 +2157,13 @@
         <v>15214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -2196,13 +2172,13 @@
         <v>24841</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2193,13 @@
         <v>569027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>553</v>
@@ -2232,13 +2208,13 @@
         <v>560382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>1122</v>
@@ -2247,13 +2223,13 @@
         <v>1129409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,7 +2285,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2327,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2342,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2357,7 +2333,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2348,13 @@
         <v>24523</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -2387,10 +2363,10 @@
         <v>49981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>61</v>
@@ -2444,7 +2420,7 @@
         <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>1734</v>
@@ -2453,13 +2429,13 @@
         <v>1855689</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,7 +2491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2533,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2548,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2563,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2554,13 @@
         <v>13936</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2593,13 +2569,13 @@
         <v>46074</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -2608,13 +2584,13 @@
         <v>60009</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2605,13 @@
         <v>664573</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -2644,13 +2620,13 @@
         <v>637767</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>1276</v>
@@ -2659,13 +2635,13 @@
         <v>1302341</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,7 +2697,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2739,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2754,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2769,7 +2745,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2760,13 @@
         <v>29195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2799,13 +2775,13 @@
         <v>82765</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>110</v>
@@ -2814,13 +2790,13 @@
         <v>111960</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2811,13 @@
         <v>913027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>918</v>
@@ -2850,13 +2826,13 @@
         <v>955847</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>1881</v>
@@ -2865,13 +2841,13 @@
         <v>1868874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2960,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2975,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2966,13 @@
         <v>78472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -3005,13 +2981,13 @@
         <v>194900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>267</v>
@@ -3020,13 +2996,13 @@
         <v>273372</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,16 +3014,16 @@
         <v>3136</v>
       </c>
       <c r="D26" s="7">
-        <v>3198072</v>
+        <v>3198071</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>3108</v>
@@ -3056,13 +3032,13 @@
         <v>3184298</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>6244</v>
@@ -3071,13 +3047,13 @@
         <v>6382369</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,7 +3065,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>31</v>
@@ -3133,7 +3109,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0BEC6-406F-4FA3-BE05-9396518922FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8B49BB-FF96-4563-8343-3B489561893C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3171,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3284,7 +3260,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3299,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3314,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3305,13 @@
         <v>1815</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3344,13 +3320,13 @@
         <v>10930</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3359,13 +3335,13 @@
         <v>12745</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,10 +3356,10 @@
         <v>113950</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3395,13 +3371,13 @@
         <v>100975</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -3410,13 +3386,13 @@
         <v>214925</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,10 +3529,10 @@
         <v>157</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -3565,13 +3541,13 @@
         <v>43967</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3562,13 @@
         <v>582534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>514</v>
@@ -3601,13 +3577,13 @@
         <v>546347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1061</v>
@@ -3616,13 +3592,13 @@
         <v>1128882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3654,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3696,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3711,7 +3687,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3726,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3717,13 @@
         <v>10584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -3756,13 +3732,13 @@
         <v>48178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -3771,13 +3747,13 @@
         <v>58762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3768,13 @@
         <v>1007363</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>893</v>
@@ -3807,7 +3783,7 @@
         <v>980795</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>184</v>
@@ -3884,7 +3860,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3902,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3932,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,10 +3926,10 @@
         <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -3962,10 +3938,10 @@
         <v>40290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>193</v>
@@ -4004,7 +3980,7 @@
         <v>198</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7">
         <v>670</v>
@@ -4013,13 +3989,13 @@
         <v>736884</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>1352</v>
@@ -4090,7 +4066,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4108,7 +4084,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4123,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4138,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,10 +4132,10 @@
         <v>36</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -4168,13 +4144,13 @@
         <v>51560</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -4183,13 +4159,13 @@
         <v>67279</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4180,13 @@
         <v>930990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="H22" s="7">
         <v>952</v>
@@ -4219,13 +4195,13 @@
         <v>1000341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>1845</v>
@@ -4234,13 +4210,13 @@
         <v>1931331</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4329,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4344,7 +4320,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4335,13 @@
         <v>41286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -4374,13 +4350,13 @@
         <v>189757</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>217</v>
@@ -4389,13 +4365,13 @@
         <v>231043</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4386,13 @@
         <v>3384462</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>3119</v>
@@ -4425,13 +4401,13 @@
         <v>3365341</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>6287</v>
@@ -4502,7 +4478,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4523,7 +4499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C55CABC-BCC7-43AA-8D35-A1B64E773638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93CF530-B1E8-4EDA-9BFB-57F479F1EE24}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4653,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4668,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4683,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4674,13 @@
         <v>2207</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4713,10 +4689,10 @@
         <v>5859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>239</v>
@@ -4731,10 +4707,10 @@
         <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,10 +4725,10 @@
         <v>114339</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -4764,13 +4740,13 @@
         <v>107501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -4779,13 +4755,13 @@
         <v>221839</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4889,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4880,13 @@
         <v>9537</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4919,13 +4895,13 @@
         <v>25898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -4934,13 +4910,13 @@
         <v>35435</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4931,13 @@
         <v>548717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -4970,13 +4946,13 @@
         <v>533581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>1056</v>
@@ -4985,13 +4961,13 @@
         <v>1082298</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,7 +5023,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5065,7 +5041,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5080,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5095,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5086,13 @@
         <v>10012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -5125,13 +5101,13 @@
         <v>61466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5140,13 +5116,13 @@
         <v>71477</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5137,13 @@
         <v>1012419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>921</v>
@@ -5176,13 +5152,13 @@
         <v>981447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>1862</v>
@@ -5191,13 +5167,13 @@
         <v>1993867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,7 +5229,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5271,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5286,7 +5262,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5301,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5292,13 @@
         <v>10960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5331,13 +5307,13 @@
         <v>38033</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -5346,13 +5322,13 @@
         <v>48993</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5343,13 @@
         <v>748592</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>700</v>
@@ -5382,13 +5358,13 @@
         <v>746978</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>1386</v>
@@ -5397,13 +5373,13 @@
         <v>1495570</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5435,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5477,7 +5453,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5492,7 +5468,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5507,7 +5483,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5498,13 @@
         <v>15160</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -5537,13 +5513,13 @@
         <v>63443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>70</v>
@@ -5552,13 +5528,13 @@
         <v>78603</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5549,13 @@
         <v>922407</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>904</v>
@@ -5588,13 +5564,13 @@
         <v>980336</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>1821</v>
@@ -5603,13 +5579,13 @@
         <v>1902743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5698,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5713,7 +5689,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5704,13 @@
         <v>47875</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>178</v>
@@ -5743,13 +5719,13 @@
         <v>194699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M25" s="7">
         <v>224</v>
@@ -5758,13 +5734,13 @@
         <v>242574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5755,13 @@
         <v>3346475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>3160</v>
@@ -5794,13 +5770,13 @@
         <v>3349843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>6345</v>
@@ -5809,13 +5785,13 @@
         <v>6696318</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +5847,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5892,7 +5868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272A8205-FE30-4F5D-9DEB-A10E6C8503BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23CB883-956F-4E56-8BE3-FAD0A54229FB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5909,7 +5885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6022,7 +5998,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6037,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6052,7 +6028,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6043,13 @@
         <v>3107</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -6082,13 +6058,13 @@
         <v>6820</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -6097,10 +6073,10 @@
         <v>9928</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>157</v>
@@ -6118,13 +6094,13 @@
         <v>98875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H6" s="7">
         <v>229</v>
@@ -6133,13 +6109,13 @@
         <v>123913</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7">
         <v>343</v>
@@ -6148,13 +6124,13 @@
         <v>222787</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6237,13 +6213,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6252,13 +6228,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6249,13 @@
         <v>27617</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H9" s="7">
         <v>106</v>
@@ -6288,13 +6264,13 @@
         <v>59791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -6303,13 +6279,13 @@
         <v>87408</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6300,13 @@
         <v>522206</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>889</v>
@@ -6339,13 +6315,13 @@
         <v>532764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>1470</v>
@@ -6354,13 +6330,13 @@
         <v>1054970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6392,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6434,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6443,13 +6419,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6458,13 +6434,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6455,13 @@
         <v>38674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>156</v>
@@ -6494,13 +6470,13 @@
         <v>98467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>195</v>
@@ -6509,13 +6485,13 @@
         <v>137140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6506,13 @@
         <v>1000574</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>1358</v>
@@ -6545,13 +6521,13 @@
         <v>959546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>2283</v>
@@ -6560,13 +6536,13 @@
         <v>1960120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,7 +6598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6640,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6655,7 +6631,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6670,7 +6646,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6661,13 @@
         <v>34370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>145</v>
@@ -6700,13 +6676,13 @@
         <v>105168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>177</v>
@@ -6715,13 +6691,13 @@
         <v>139538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6712,13 @@
         <v>692554</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>899</v>
@@ -6751,13 +6727,13 @@
         <v>767463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M18" s="7">
         <v>1541</v>
@@ -6766,13 +6742,13 @@
         <v>1460016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6804,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6846,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6855,13 +6831,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6870,13 +6846,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6867,13 @@
         <v>51907</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H21" s="7">
         <v>194</v>
@@ -6906,13 +6882,13 @@
         <v>148140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>244</v>
@@ -6921,13 +6897,13 @@
         <v>200047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6918,13 @@
         <v>912233</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>1365</v>
@@ -6957,13 +6933,13 @@
         <v>998141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>2319</v>
@@ -6972,13 +6948,13 @@
         <v>1910374</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7064,10 +7040,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7076,13 +7052,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7073,13 @@
         <v>155675</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H25" s="7">
         <v>615</v>
@@ -7112,13 +7088,13 @@
         <v>418386</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>771</v>
@@ -7127,13 +7103,13 @@
         <v>574061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7124,13 @@
         <v>3226442</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>4740</v>
@@ -7163,13 +7139,13 @@
         <v>3381826</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>7956</v>
@@ -7178,13 +7154,13 @@
         <v>6608269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,7 +7216,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1421-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A29DBC-2C04-445D-AED0-96BBDF1684AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52275DC9-1BAB-4486-8964-B8ADD5774668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B460A9E8-2977-4E46-BD98-7CA2985ACA47}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{19ACFAD1-C7FF-41E8-A42D-F9B7CA6108A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="348">
   <si>
     <t>Población con diagnóstico de migrañas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,615 +68,540 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de migrañas en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
     <t>94,66%</t>
   </si>
   <si>
@@ -695,264 +620,222 @@
     <t>Población con diagnóstico de migrañas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
     <t>98,95%</t>
   </si>
   <si>
@@ -968,316 +851,238 @@
     <t>Población con diagnóstico de migrañas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>90,69%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>92,65%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1494,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEE6EB7-D03F-4A8C-87FA-53C7BD7C123F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B7DA24-1486-43BA-8A37-0476D1DA750F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1807,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1190</v>
+        <v>10817</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1822,85 +1627,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>867</v>
+        <v>16081</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>2057</v>
+        <v>26898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>673</v>
       </c>
       <c r="D5" s="7">
-        <v>114168</v>
+        <v>683195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>680</v>
       </c>
       <c r="I5" s="7">
-        <v>111888</v>
+        <v>672270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>1353</v>
       </c>
       <c r="N5" s="7">
-        <v>226056</v>
+        <v>1355465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,153 +1714,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>9627</v>
+        <v>24523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>15214</v>
+        <v>49981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>24841</v>
+        <v>74504</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>569</v>
+        <v>873</v>
       </c>
       <c r="D8" s="7">
-        <v>569027</v>
+        <v>937277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>553</v>
+        <v>861</v>
       </c>
       <c r="I8" s="7">
-        <v>560382</v>
+        <v>918412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1122</v>
+        <v>1734</v>
       </c>
       <c r="N8" s="7">
-        <v>1129409</v>
+        <v>1855689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,153 +1869,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>24523</v>
+        <v>13936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>49981</v>
+        <v>46074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>74504</v>
+        <v>60009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>873</v>
+        <v>627</v>
       </c>
       <c r="D11" s="7">
-        <v>937277</v>
+        <v>664573</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>861</v>
+        <v>649</v>
       </c>
       <c r="I11" s="7">
-        <v>918412</v>
+        <v>637767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1734</v>
+        <v>1276</v>
       </c>
       <c r="N11" s="7">
-        <v>1855689</v>
+        <v>1302341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,153 +2024,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>13936</v>
+        <v>29195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>46074</v>
+        <v>82765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="N13" s="7">
-        <v>60009</v>
+        <v>111960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>627</v>
+        <v>963</v>
       </c>
       <c r="D14" s="7">
-        <v>664573</v>
+        <v>913027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>649</v>
+        <v>918</v>
       </c>
       <c r="I14" s="7">
-        <v>637767</v>
+        <v>955847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1276</v>
+        <v>1881</v>
       </c>
       <c r="N14" s="7">
-        <v>1302341</v>
+        <v>1868874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,153 +2179,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>29195</v>
+        <v>78472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="I16" s="7">
-        <v>82765</v>
+        <v>194900</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="N16" s="7">
-        <v>111960</v>
+        <v>273372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>963</v>
+        <v>3136</v>
       </c>
       <c r="D17" s="7">
-        <v>913027</v>
+        <v>3198071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
-        <v>918</v>
+        <v>3108</v>
       </c>
       <c r="I17" s="7">
-        <v>955847</v>
+        <v>3184297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1881</v>
+        <v>6244</v>
       </c>
       <c r="N17" s="7">
-        <v>1868874</v>
+        <v>6382369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,217 +2334,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7">
-        <v>78472</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>189</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194900</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>267</v>
-      </c>
-      <c r="N19" s="7">
-        <v>273372</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3136</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3198072</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3108</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3184298</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6244</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6382368</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2752,8 +2401,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1583AC6-EF5C-41D8-8F74-A749D17930D1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573BB99-266D-41B5-911A-CE0D7388B552}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2769,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,100 +2519,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>1815</v>
+        <v>6984</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>10930</v>
+        <v>49728</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>12745</v>
+        <v>56712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>667</v>
+      </c>
+      <c r="D5" s="7">
+        <v>696485</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
+        <v>604</v>
+      </c>
+      <c r="I5" s="7">
+        <v>647322</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="7">
-        <v>113950</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>90</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100975</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1271</v>
       </c>
       <c r="N5" s="7">
-        <v>214925</v>
+        <v>1343807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,153 +2621,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>5170</v>
+        <v>10584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>38798</v>
+        <v>48178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>43967</v>
+        <v>58762</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>547</v>
+        <v>926</v>
       </c>
       <c r="D8" s="7">
-        <v>582534</v>
+        <v>1007363</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>514</v>
+        <v>893</v>
       </c>
       <c r="I8" s="7">
-        <v>546347</v>
+        <v>980795</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1061</v>
+        <v>1819</v>
       </c>
       <c r="N8" s="7">
-        <v>1128882</v>
+        <v>1988159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,153 +2776,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>10584</v>
+        <v>8000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>48178</v>
+        <v>40290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="M10" s="7">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>58762</v>
+        <v>48289</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>926</v>
+        <v>682</v>
       </c>
       <c r="D11" s="7">
-        <v>1007363</v>
+        <v>749623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>893</v>
+        <v>670</v>
       </c>
       <c r="I11" s="7">
-        <v>980795</v>
+        <v>736884</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1819</v>
+        <v>1352</v>
       </c>
       <c r="N11" s="7">
-        <v>1988158</v>
+        <v>1486508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,153 +2931,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>8000</v>
+        <v>15719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>40290</v>
+        <v>51560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>48289</v>
+        <v>67279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>682</v>
+        <v>893</v>
       </c>
       <c r="D14" s="7">
-        <v>749623</v>
+        <v>930990</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>670</v>
+        <v>952</v>
       </c>
       <c r="I14" s="7">
-        <v>736884</v>
+        <v>1000341</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1352</v>
+        <v>1845</v>
       </c>
       <c r="N14" s="7">
-        <v>1486508</v>
+        <v>1931331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,153 +3086,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>909</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>946709</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1998610</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>15719</v>
+        <v>41286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="I16" s="7">
-        <v>51560</v>
+        <v>189757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7">
-        <v>67279</v>
+        <v>231043</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>893</v>
+        <v>3168</v>
       </c>
       <c r="D17" s="7">
-        <v>930990</v>
+        <v>3384462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>952</v>
+        <v>3119</v>
       </c>
       <c r="I17" s="7">
-        <v>1000341</v>
+        <v>3365341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1845</v>
+        <v>6287</v>
       </c>
       <c r="N17" s="7">
-        <v>1931331</v>
+        <v>6749804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,217 +3241,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>909</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>946709</v>
+        <v>3425748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998610</v>
+        <v>6980847</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>41286</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="7">
-        <v>177</v>
-      </c>
-      <c r="I19" s="7">
-        <v>189757</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M19" s="7">
-        <v>217</v>
-      </c>
-      <c r="N19" s="7">
-        <v>231043</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3384462</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3119</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3365341</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6287</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6749803</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425748</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980846</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3815,8 +3308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BAF45-3242-41EA-AC8B-770D17DFCEDF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB0C84B-D304-4726-8944-CB4013DC7C43}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3832,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3933,100 +3426,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>2207</v>
+        <v>11744</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>5859</v>
+        <v>31757</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>8067</v>
+        <v>43501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>114339</v>
+        <v>663056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>635</v>
       </c>
       <c r="I5" s="7">
-        <v>107501</v>
+        <v>641082</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1276</v>
       </c>
       <c r="N5" s="7">
-        <v>221839</v>
+        <v>1304138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,153 +3528,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>9537</v>
+        <v>10012</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>25898</v>
+        <v>61466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>35435</v>
+        <v>71477</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>530</v>
+        <v>941</v>
       </c>
       <c r="D8" s="7">
-        <v>548717</v>
+        <v>1012419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>526</v>
+        <v>921</v>
       </c>
       <c r="I8" s="7">
-        <v>533581</v>
+        <v>981447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="M8" s="7">
-        <v>1056</v>
+        <v>1862</v>
       </c>
       <c r="N8" s="7">
-        <v>1082298</v>
+        <v>1993867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,54 +3683,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4246,97 +3739,97 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>10012</v>
+        <v>10960</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>61466</v>
+        <v>38033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>71477</v>
+        <v>48993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>941</v>
+        <v>686</v>
       </c>
       <c r="D11" s="7">
-        <v>1012419</v>
+        <v>748592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>921</v>
+        <v>700</v>
       </c>
       <c r="I11" s="7">
-        <v>981447</v>
+        <v>746978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1862</v>
+        <v>1386</v>
       </c>
       <c r="N11" s="7">
-        <v>1993867</v>
+        <v>1495570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,153 +3838,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>10960</v>
+        <v>15160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>38033</v>
+        <v>63443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>48993</v>
+        <v>78603</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>686</v>
+        <v>917</v>
       </c>
       <c r="D14" s="7">
-        <v>748592</v>
+        <v>922407</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
-        <v>700</v>
+        <v>904</v>
       </c>
       <c r="I14" s="7">
-        <v>746978</v>
+        <v>980336</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
-        <v>1386</v>
+        <v>1821</v>
       </c>
       <c r="N14" s="7">
-        <v>1495570</v>
+        <v>1902743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,153 +3993,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>15160</v>
+        <v>47875</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="I16" s="7">
-        <v>63443</v>
+        <v>194699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="N16" s="7">
-        <v>78603</v>
+        <v>242574</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>917</v>
+        <v>3185</v>
       </c>
       <c r="D17" s="7">
-        <v>922407</v>
+        <v>3346475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>904</v>
+        <v>3160</v>
       </c>
       <c r="I17" s="7">
-        <v>980336</v>
+        <v>3349843</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>1821</v>
+        <v>6345</v>
       </c>
       <c r="N17" s="7">
-        <v>1902743</v>
+        <v>6696318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,217 +4148,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7">
-        <v>47875</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="7">
-        <v>178</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194699</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M19" s="7">
-        <v>224</v>
-      </c>
-      <c r="N19" s="7">
-        <v>242574</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3185</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3346475</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3160</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3349843</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6345</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6696318</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4878,8 +4215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFF1A56-A056-4C65-A20B-7478C82E7EC1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47B6351-A146-4BF2-8402-CB97513D8E27}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4895,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,100 +4333,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>3107</v>
+        <v>29755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>6820</v>
+        <v>62902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="N4" s="7">
-        <v>9928</v>
+        <v>92656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>695</v>
       </c>
       <c r="D5" s="7">
-        <v>98875</v>
+        <v>605686</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>229</v>
+        <v>1118</v>
       </c>
       <c r="I5" s="7">
-        <v>123913</v>
+        <v>612468</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
-        <v>343</v>
+        <v>1813</v>
       </c>
       <c r="N5" s="7">
-        <v>222787</v>
+        <v>1218155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,153 +4435,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>27617</v>
+        <v>37112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>59791</v>
+        <v>91818</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="N7" s="7">
-        <v>87408</v>
+        <v>128931</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>581</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>522206</v>
+        <v>1155752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
-        <v>889</v>
+        <v>1358</v>
       </c>
       <c r="I8" s="7">
-        <v>532764</v>
+        <v>864915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
-        <v>1470</v>
+        <v>2283</v>
       </c>
       <c r="N8" s="7">
-        <v>1054970</v>
+        <v>2020666</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,153 +4590,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>956733</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2149597</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>38674</v>
+        <v>32769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>98467</v>
+        <v>96987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N10" s="7">
-        <v>137140</v>
+        <v>129756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>642</v>
       </c>
       <c r="D11" s="7">
-        <v>1000574</v>
+        <v>670196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
-        <v>1358</v>
+        <v>899</v>
       </c>
       <c r="I11" s="7">
-        <v>959546</v>
+        <v>834764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
-        <v>2283</v>
+        <v>1541</v>
       </c>
       <c r="N11" s="7">
-        <v>1960120</v>
+        <v>1504960</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,153 +4745,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058013</v>
+        <v>931751</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1718</v>
       </c>
       <c r="N12" s="7">
-        <v>2097260</v>
+        <v>1634716</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>34370</v>
+        <v>53066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="I13" s="7">
-        <v>105168</v>
+        <v>134418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="N13" s="7">
-        <v>139538</v>
+        <v>187484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>642</v>
+        <v>954</v>
       </c>
       <c r="D14" s="7">
-        <v>692554</v>
+        <v>872544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
-        <v>899</v>
+        <v>1365</v>
       </c>
       <c r="I14" s="7">
-        <v>767463</v>
+        <v>956896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
-        <v>1541</v>
+        <v>2319</v>
       </c>
       <c r="N14" s="7">
-        <v>1460016</v>
+        <v>1829440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,153 +4900,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>925610</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>872631</v>
+        <v>1091314</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1718</v>
+        <v>2563</v>
       </c>
       <c r="N15" s="7">
-        <v>1599554</v>
+        <v>2016924</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="D16" s="7">
-        <v>51907</v>
+        <v>152702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
-        <v>194</v>
+        <v>615</v>
       </c>
       <c r="I16" s="7">
-        <v>148140</v>
+        <v>386125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
-        <v>244</v>
+        <v>771</v>
       </c>
       <c r="N16" s="7">
-        <v>200047</v>
+        <v>538827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>954</v>
+        <v>3216</v>
       </c>
       <c r="D17" s="7">
-        <v>912233</v>
+        <v>3304178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="H17" s="7">
-        <v>1365</v>
+        <v>4740</v>
       </c>
       <c r="I17" s="7">
-        <v>998140</v>
+        <v>3269043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="M17" s="7">
-        <v>2319</v>
+        <v>7956</v>
       </c>
       <c r="N17" s="7">
-        <v>1910374</v>
+        <v>6573221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,217 +5055,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3372</v>
       </c>
       <c r="D18" s="7">
-        <v>964140</v>
+        <v>3456880</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5355</v>
       </c>
       <c r="I18" s="7">
-        <v>1146280</v>
+        <v>3655168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2563</v>
+        <v>8727</v>
       </c>
       <c r="N18" s="7">
-        <v>2110421</v>
+        <v>7112048</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>156</v>
-      </c>
-      <c r="D19" s="7">
-        <v>155675</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H19" s="7">
-        <v>615</v>
-      </c>
-      <c r="I19" s="7">
-        <v>418386</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M19" s="7">
-        <v>771</v>
-      </c>
-      <c r="N19" s="7">
-        <v>574061</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3216</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3226442</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4740</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3381826</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7956</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6608267</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382117</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5355</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3800212</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8727</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7182328</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
